--- a/data/raw/supp_data_raw.xlsx
+++ b/data/raw/supp_data_raw.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\0_Ziegelprojekt\3_Aufnahmen_und_Ergebnisse\2020_waste_bricks_trees\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0358EC-4FFE-4E1B-B37A-2FB7CD983A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data raw" sheetId="1" r:id="rId1"/>
@@ -69,16 +70,16 @@
     <t>substrate_6</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>down</t>
+    <t>limit_max</t>
+  </si>
+  <si>
+    <t>limit_min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -164,8 +165,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
-    <cellStyle name="Standard 3" xfId="2"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,12 +477,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:I11"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +813,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -822,10 +823,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
